--- a/data/processed_data/clean_data_temp/一般纳税人_rearranged.xlsx
+++ b/data/processed_data/clean_data_temp/一般纳税人_rearranged.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\75697\PycharmProjects\BFSUIEEEISIWorldCup\data\processed_data\clean_data_temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F6E327-CD8A-4A0E-8227-6D8AA5DE64CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="140">
   <si>
     <t>企业总评分</t>
   </si>
@@ -50,6 +44,9 @@
   </si>
   <si>
     <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>2007-04-11</t>
@@ -442,12 +439,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,15 +452,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,23 +499,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,27 +581,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,24 +615,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -844,24 +790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -892,50 +828,56 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1006</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1006</v>
       </c>
@@ -943,36 +885,39 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1013</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1013</v>
       </c>
@@ -980,19 +925,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1016</v>
       </c>
@@ -1000,19 +945,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1020</v>
       </c>
@@ -1020,19 +965,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1033</v>
       </c>
@@ -1040,19 +985,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1044</v>
       </c>
@@ -1060,36 +1005,39 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1054</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1054</v>
       </c>
@@ -1097,19 +1045,19 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1055</v>
       </c>
@@ -1117,19 +1065,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1063</v>
       </c>
@@ -1137,19 +1085,19 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1069</v>
       </c>
@@ -1157,36 +1105,39 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1070</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1074</v>
       </c>
@@ -1194,36 +1145,39 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1074</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1077</v>
       </c>
@@ -1231,53 +1185,59 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1080</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1083</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1083</v>
       </c>
@@ -1285,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1094</v>
       </c>
@@ -1305,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1098</v>
       </c>
@@ -1325,19 +1285,19 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1123</v>
       </c>
@@ -1345,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1124</v>
       </c>
@@ -1365,36 +1325,39 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1141</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1141</v>
       </c>
@@ -1402,19 +1365,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1142</v>
       </c>
@@ -1422,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1162</v>
       </c>
@@ -1442,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1164</v>
       </c>
@@ -1462,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1176</v>
       </c>
@@ -1482,36 +1445,39 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1211</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1229</v>
       </c>
@@ -1519,19 +1485,19 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1234</v>
       </c>
@@ -1539,36 +1505,39 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1239</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1239</v>
       </c>
@@ -1576,36 +1545,39 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1263</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1265</v>
       </c>
@@ -1613,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>1270</v>
       </c>
@@ -1633,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1349</v>
       </c>
@@ -1653,53 +1625,59 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1353</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1375</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1394</v>
       </c>
@@ -1707,36 +1685,39 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1395</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>1402</v>
       </c>
@@ -1744,19 +1725,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>1405</v>
       </c>
@@ -1764,36 +1745,39 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1405</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>1409</v>
       </c>
@@ -1801,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>1416</v>
       </c>
@@ -1821,36 +1805,39 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>1424</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1428</v>
       </c>
@@ -1858,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>1484</v>
       </c>
@@ -1878,19 +1865,19 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>1488</v>
       </c>
@@ -1898,19 +1885,19 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>1489</v>
       </c>
@@ -1918,19 +1905,19 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1491</v>
       </c>
@@ -1938,36 +1925,39 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>1492</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>1492</v>
       </c>
@@ -1975,19 +1965,19 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>1493</v>
       </c>
@@ -1995,36 +1985,39 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>1493</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>1496</v>
       </c>
@@ -2032,36 +2025,39 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>1497</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>1497</v>
       </c>
@@ -2069,19 +2065,19 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1498</v>
       </c>
@@ -2089,19 +2085,19 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>1499</v>
       </c>
@@ -2109,19 +2105,19 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>1500</v>
       </c>
@@ -2129,36 +2125,39 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>1501</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>1501</v>
       </c>
@@ -2166,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>1502</v>
       </c>
@@ -2186,19 +2185,19 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>1504</v>
       </c>
@@ -2206,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>1505</v>
       </c>
@@ -2226,36 +2225,39 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1506</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>1506</v>
       </c>
@@ -2263,36 +2265,39 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>1507</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>1507</v>
       </c>
@@ -2300,19 +2305,19 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1508</v>
       </c>
@@ -2320,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>1509</v>
       </c>
@@ -2340,36 +2345,39 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>1509</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>1510</v>
       </c>
@@ -2377,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>1511</v>
       </c>
@@ -2397,19 +2405,19 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>1512</v>
       </c>
@@ -2417,19 +2425,19 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>1513</v>
       </c>
@@ -2437,36 +2445,39 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>1513</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>1514</v>
       </c>
@@ -2474,19 +2485,19 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>1516</v>
       </c>
@@ -2494,19 +2505,19 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>1517</v>
       </c>
@@ -2514,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>1518</v>
       </c>
@@ -2534,36 +2545,39 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>1519</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>1519</v>
       </c>
@@ -2571,19 +2585,19 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>1520</v>
       </c>
@@ -2591,19 +2605,19 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>1521</v>
       </c>
@@ -2611,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>1522</v>
       </c>
@@ -2631,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>1523</v>
       </c>
@@ -2651,36 +2665,39 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>1523</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>1524</v>
       </c>
@@ -2688,19 +2705,19 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>1525</v>
       </c>
@@ -2708,19 +2725,19 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>1528</v>
       </c>
@@ -2728,36 +2745,39 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>1529</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>1529</v>
       </c>
@@ -2765,19 +2785,19 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>1530</v>
       </c>
@@ -2785,19 +2805,19 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>1531</v>
       </c>
@@ -2805,36 +2825,39 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>1531</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>1532</v>
       </c>
@@ -2842,19 +2865,19 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>1533</v>
       </c>
@@ -2862,19 +2885,19 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>1534</v>
       </c>
@@ -2882,53 +2905,59 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>1535</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>1536</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>1536</v>
       </c>
@@ -2936,19 +2965,19 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>1541</v>
       </c>
@@ -2956,19 +2985,19 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>1542</v>
       </c>
@@ -2976,53 +3005,59 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>1548</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>1551</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>1551</v>
       </c>
@@ -3030,19 +3065,19 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>1552</v>
       </c>
@@ -3050,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>1555</v>
       </c>
@@ -3070,36 +3105,39 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>1563</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>1563</v>
       </c>
@@ -3107,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>1564</v>
       </c>
@@ -3127,19 +3165,19 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>1567</v>
       </c>
@@ -3147,36 +3185,39 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D120" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>1567</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>1570</v>
       </c>
@@ -3184,19 +3225,19 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>1571</v>
       </c>
@@ -3204,36 +3245,39 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>1582</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>1582</v>
       </c>
@@ -3241,36 +3285,39 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>1605</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>1605</v>
       </c>
@@ -3278,36 +3325,39 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>1614</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F128" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>1614</v>
       </c>
@@ -3315,19 +3365,19 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>1621</v>
       </c>
@@ -3335,36 +3385,39 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D130" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>1621</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
       </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
       <c r="D131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E131" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>1626</v>
       </c>
@@ -3372,53 +3425,59 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E132" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F132" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>1638</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
       <c r="D133" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F133" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>1644</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>1681</v>
       </c>
@@ -3426,19 +3485,19 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E135" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>1683</v>
       </c>
@@ -3446,19 +3505,19 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F136" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>1684</v>
       </c>
@@ -3466,36 +3525,39 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>1685</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
       <c r="D138" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>1685</v>
       </c>
@@ -3503,19 +3565,19 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>1687</v>
       </c>
@@ -3523,19 +3585,19 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>1688</v>
       </c>
@@ -3543,19 +3605,19 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D141" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E141" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>1689</v>
       </c>
@@ -3563,36 +3625,39 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D142" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E142" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>1690</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
       <c r="D143" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F143" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>1690</v>
       </c>
@@ -3600,19 +3665,19 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E144" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F144" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>1691</v>
       </c>
@@ -3620,53 +3685,59 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>1691</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
       <c r="D146" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E146" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>1692</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
       <c r="D147" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F147" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>1692</v>
       </c>
@@ -3674,19 +3745,19 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E148" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F148" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>1697</v>
       </c>
@@ -3694,19 +3765,19 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D149" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E149" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F149" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>1698</v>
       </c>
@@ -3714,19 +3785,19 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E150" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F150" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>1699</v>
       </c>
@@ -3734,36 +3805,39 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F151" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>1699</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
       <c r="D152" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E152" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F152" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>1700</v>
       </c>
@@ -3771,19 +3845,19 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E153" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>1701</v>
       </c>
@@ -3791,36 +3865,39 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D154" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E154" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>1702</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
       </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
       <c r="D155" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F155" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>1702</v>
       </c>
@@ -3828,19 +3905,19 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E156" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>1704</v>
       </c>
@@ -3848,19 +3925,19 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E157" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>1705</v>
       </c>
@@ -3868,19 +3945,19 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E158" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F158" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>1706</v>
       </c>
@@ -3888,19 +3965,19 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E159" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F159" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>1707</v>
       </c>
@@ -3908,53 +3985,59 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D160" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E160" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F160" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>1707</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
       </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
       <c r="D161" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E161" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F161" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>1708</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
       <c r="D162" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E162" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>1708</v>
       </c>
@@ -3962,36 +4045,39 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E163" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>1710</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
       <c r="D164" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E164" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F164" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>1710</v>
       </c>
@@ -3999,36 +4085,39 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D165" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E165" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F165" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>1711</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
       </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
       <c r="D166" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E166" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F166" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>1711</v>
       </c>
@@ -4036,19 +4125,19 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D167" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E167" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F167" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>1712</v>
       </c>
@@ -4056,19 +4145,19 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E168" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F168" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>1751</v>
       </c>
@@ -4076,19 +4165,19 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E169" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>1767</v>
       </c>
@@ -4096,19 +4185,19 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E170" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F170" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>1819</v>
       </c>
@@ -4116,19 +4205,19 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D171" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E171" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F171" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>1859</v>
       </c>
@@ -4136,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E172" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F172" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>1861</v>
       </c>
@@ -4156,36 +4245,39 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D173" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E173" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F173" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>1867</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
       <c r="D174" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E174" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F174" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>1869</v>
       </c>
@@ -4193,36 +4285,39 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F175" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>1869</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
       <c r="D176" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E176" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F176" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>1870</v>
       </c>
@@ -4230,19 +4325,19 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E177" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F177" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>1879</v>
       </c>
@@ -4250,36 +4345,39 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D178" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E178" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F178" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>1884</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F179" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>1896</v>
       </c>
@@ -4287,19 +4385,19 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E180" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F180" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>1904</v>
       </c>
@@ -4307,19 +4405,19 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D181" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E181" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F181" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>1907</v>
       </c>
@@ -4327,19 +4425,19 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E182" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F182" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>1909</v>
       </c>
@@ -4347,19 +4445,19 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E183" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F183" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>1912</v>
       </c>
@@ -4367,36 +4465,39 @@
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D184" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F184" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>1929</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
       </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E185" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F185" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>1929</v>
       </c>
@@ -4404,19 +4505,19 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>1941</v>
       </c>
@@ -4424,19 +4525,19 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D187" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E187" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F187" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>1946</v>
       </c>
@@ -4444,53 +4545,59 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E188" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F188" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>1948</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
       </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
       <c r="D189" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E189" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F189" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>1954</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
       </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
       <c r="D190" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E190" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F190" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -4498,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D191" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E191" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F191" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>1991</v>
       </c>
@@ -4518,19 +4625,19 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E192" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F192" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>1994</v>
       </c>
@@ -4538,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D193" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E193" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F193" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>1997</v>
       </c>
@@ -4558,19 +4665,19 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D194" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E194" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F194" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>2004</v>
       </c>
@@ -4578,36 +4685,39 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D195" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E195" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F195" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>2004</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
       </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
       <c r="D196" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E196" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F196" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>2006</v>
       </c>
@@ -4615,36 +4725,39 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D197" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E197" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F197" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>2013</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
       <c r="D198" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E198" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F198" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>2013</v>
       </c>
@@ -4652,19 +4765,19 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E199" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F199" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>2019</v>
       </c>
@@ -4672,36 +4785,39 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E200" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F200" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>2021</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
       <c r="D201" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E201" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F201" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -4709,19 +4825,19 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E202" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F202" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>2029</v>
       </c>
@@ -4729,19 +4845,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D203" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E203" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F203" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>2043</v>
       </c>
@@ -4749,36 +4865,39 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D204" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E204" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F204" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>2050</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
       <c r="D205" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E205" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F205" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>2057</v>
       </c>
@@ -4786,36 +4905,39 @@
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D206" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E206" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F206" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>2061</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
       <c r="D207" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E207" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F207" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>2064</v>
       </c>
@@ -4823,19 +4945,19 @@
         <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D208" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E208" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F208" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>2068</v>
       </c>
@@ -4843,19 +4965,19 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D209" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E209" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F209" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>2070</v>
       </c>
@@ -4863,19 +4985,19 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D210" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E210" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F210" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>2076</v>
       </c>
@@ -4883,19 +5005,19 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E211" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F211" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>2078</v>
       </c>
@@ -4903,19 +5025,19 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D212" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E212" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F212" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>2096</v>
       </c>
@@ -4923,19 +5045,19 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D213" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E213" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F213" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>2097</v>
       </c>
@@ -4943,19 +5065,19 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D214" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E214" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F214" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>2098</v>
       </c>
@@ -4963,19 +5085,19 @@
         <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D215" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E215" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F215" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>2099</v>
       </c>
@@ -4983,36 +5105,39 @@
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D216" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E216" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F216" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>2102</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
       </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
       <c r="D217" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E217" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F217" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>2102</v>
       </c>
@@ -5020,19 +5145,19 @@
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D218" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E218" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F218" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>2105</v>
       </c>
@@ -5040,36 +5165,39 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D219" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E219" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F219" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>2107</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
       </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
       <c r="D220" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E220" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F220" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>2111</v>
       </c>
@@ -5077,19 +5205,19 @@
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D221" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E221" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F221" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>2115</v>
       </c>
@@ -5097,36 +5225,39 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D222" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E222" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F222" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>2147</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
       </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
       <c r="D223" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E223" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F223" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>2152</v>
       </c>
@@ -5134,19 +5265,19 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D224" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E224" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F224" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>2153</v>
       </c>
@@ -5154,19 +5285,19 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D225" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E225" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F225" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>2170</v>
       </c>
@@ -5174,19 +5305,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D226" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E226" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F226" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>2176</v>
       </c>
@@ -5194,19 +5325,19 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D227" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E227" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F227" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>2194</v>
       </c>
@@ -5214,19 +5345,19 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D228" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F228" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>2198</v>
       </c>
@@ -5234,19 +5365,19 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D229" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E229" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F229" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>2199</v>
       </c>
@@ -5254,19 +5385,19 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D230" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E230" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F230" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>2201</v>
       </c>
@@ -5274,19 +5405,19 @@
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D231" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E231" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F231" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>2206</v>
       </c>
@@ -5294,36 +5425,39 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D232" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E232" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F232" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>2222</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
       <c r="D233" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E233" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F233" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>2229</v>
       </c>
@@ -5331,19 +5465,19 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D234" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E234" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F234" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>2230</v>
       </c>
@@ -5351,19 +5485,19 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D235" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E235" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F235" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>2234</v>
       </c>
@@ -5371,53 +5505,59 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E236" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F236" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>2235</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
       <c r="D237" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E237" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F237" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>2244</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
       <c r="D238" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E238" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F238" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>2257</v>
       </c>
@@ -5425,19 +5565,19 @@
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E239" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F239" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>2262</v>
       </c>
@@ -5445,19 +5585,19 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D240" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E240" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F240" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>2267</v>
       </c>
@@ -5465,19 +5605,19 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E241" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F241" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>2268</v>
       </c>
@@ -5485,19 +5625,19 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D242" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E242" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F242" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>2273</v>
       </c>
@@ -5505,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D243" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E243" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F243" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>2287</v>
       </c>
@@ -5525,19 +5665,19 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D244" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E244" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F244" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>2291</v>
       </c>
@@ -5545,36 +5685,39 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D245" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E245" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F245" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>2296</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
       </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
       <c r="D246" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E246" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F246" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>2304</v>
       </c>
@@ -5582,19 +5725,19 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D247" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E247" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F247" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>2307</v>
       </c>
@@ -5602,19 +5745,19 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D248" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E248" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F248" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>2313</v>
       </c>
@@ -5622,19 +5765,19 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D249" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E249" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F249" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>2314</v>
       </c>
@@ -5642,19 +5785,19 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D250" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E250" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F250" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>2315</v>
       </c>
@@ -5662,19 +5805,19 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D251" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E251" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F251" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>2326</v>
       </c>
@@ -5682,19 +5825,19 @@
         <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D252" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E252" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F252" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>2332</v>
       </c>
@@ -5702,53 +5845,59 @@
         <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E253" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F253" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>2353</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
       </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
       <c r="D254" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E254" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F254" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>2360</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
       </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
       <c r="D255" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E255" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F255" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>2360</v>
       </c>
@@ -5756,19 +5905,19 @@
         <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D256" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E256" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F256" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>2367</v>
       </c>
@@ -5776,19 +5925,19 @@
         <v>8</v>
       </c>
       <c r="C257" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D257" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E257" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F257" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>2375</v>
       </c>
@@ -5796,19 +5945,19 @@
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D258" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E258" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F258" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>2378</v>
       </c>
@@ -5816,19 +5965,19 @@
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D259" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E259" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F259" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>2379</v>
       </c>
@@ -5836,19 +5985,19 @@
         <v>6</v>
       </c>
       <c r="C260" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D260" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E260" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F260" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>2380</v>
       </c>
@@ -5856,36 +6005,39 @@
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D261" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E261" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F261" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>2380</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
       </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
       <c r="D262" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E262" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F262" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>2383</v>
       </c>
@@ -5893,19 +6045,19 @@
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E263" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F263" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>2387</v>
       </c>
@@ -5913,19 +6065,19 @@
         <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D264" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E264" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F264" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>2397</v>
       </c>
@@ -5933,53 +6085,59 @@
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D265" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E265" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F265" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>2397</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
       </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
       <c r="D266" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E266" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F266" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>2403</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
       <c r="D267" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E267" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F267" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>2412</v>
       </c>
@@ -5987,19 +6145,19 @@
         <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D268" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E268" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F268" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>2425</v>
       </c>
@@ -6007,19 +6165,19 @@
         <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E269" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F269" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>2429</v>
       </c>
@@ -6027,19 +6185,19 @@
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D270" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E270" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F270" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>2655</v>
       </c>
@@ -6047,36 +6205,39 @@
         <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D271" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E271" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F271" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>2788</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
       </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
       <c r="D272" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E272" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F272" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>2912</v>
       </c>
@@ -6084,19 +6245,19 @@
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D273" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E273" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F273" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>2918</v>
       </c>
@@ -6104,19 +6265,19 @@
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D274" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E274" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F274" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>2948</v>
       </c>
@@ -6124,87 +6285,99 @@
         <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D275" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E275" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F275" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>2952</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
       </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
       <c r="D276" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E276" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F276" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>2969</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
       </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
       <c r="D277" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E277" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F277" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>2991</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
       </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
       <c r="D278" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E278" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F278" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>3002</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
       </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
       <c r="D279" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E279" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F279" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>3003</v>
       </c>
@@ -6212,36 +6385,39 @@
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D280" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E280" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F280" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>3003</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
       </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
       <c r="D281" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E281" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F281" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>3042</v>
       </c>
@@ -6249,36 +6425,39 @@
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D282" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E282" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F282" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>3046</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
       </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
       <c r="D283" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E283" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F283" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>3046</v>
       </c>
@@ -6286,19 +6465,19 @@
         <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D284" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E284" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F284" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>3062</v>
       </c>
@@ -6306,36 +6485,39 @@
         <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D285" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E285" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F285" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>3062</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
       </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
       <c r="D286" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E286" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F286" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>3068</v>
       </c>
@@ -6343,19 +6525,19 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D287" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E287" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F287" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>3079</v>
       </c>
@@ -6363,36 +6545,39 @@
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D288" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E288" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F288" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>3085</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
       </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
       <c r="D289" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E289" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F289" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>3136</v>
       </c>
@@ -6400,19 +6585,19 @@
         <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D290" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E290" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F290" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>3152</v>
       </c>
@@ -6420,19 +6605,19 @@
         <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D291" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E291" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F291" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>3161</v>
       </c>
@@ -6440,19 +6625,19 @@
         <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D292" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E292" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F292" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>3205</v>
       </c>
@@ -6460,53 +6645,59 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D293" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E293" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F293" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>3206</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
       <c r="D294" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E294" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F294" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>3209</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
       </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
       <c r="D295" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E295" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F295" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>3209</v>
       </c>
@@ -6514,138 +6705,159 @@
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D296" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E296" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F296" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>3216</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
       </c>
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
       <c r="D297" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E297" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F297" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>3222</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
       </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
       <c r="D298" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E298" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F298" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>3239</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
+      <c r="C299" t="s">
+        <v>10</v>
+      </c>
       <c r="D299" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E299" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F299" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>3247</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
       </c>
+      <c r="C300" t="s">
+        <v>10</v>
+      </c>
       <c r="D300" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E300" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F300" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>3255</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
       </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
       <c r="D301" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E301" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F301" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>3277</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
       </c>
+      <c r="C302" t="s">
+        <v>10</v>
+      </c>
       <c r="D302" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E302" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F302" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>3281</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
       </c>
+      <c r="C303" t="s">
+        <v>10</v>
+      </c>
       <c r="D303" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E303" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F303" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>3281</v>
       </c>
@@ -6653,53 +6865,59 @@
         <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D304" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E304" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F304" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>3299</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
       </c>
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
       <c r="D305" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E305" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F305" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>3309</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
       </c>
+      <c r="C306" t="s">
+        <v>10</v>
+      </c>
       <c r="D306" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E306" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F306" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>3329</v>
       </c>
@@ -6707,19 +6925,19 @@
         <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E307" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F307" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>3332</v>
       </c>
@@ -6727,53 +6945,59 @@
         <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D308" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E308" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F308" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>3358</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
       </c>
+      <c r="C309" t="s">
+        <v>10</v>
+      </c>
       <c r="D309" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E309" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F309" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>3360</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
       </c>
+      <c r="C310" t="s">
+        <v>10</v>
+      </c>
       <c r="D310" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E310" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F310" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>3364</v>
       </c>
@@ -6781,19 +7005,19 @@
         <v>8</v>
       </c>
       <c r="C311" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D311" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E311" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F311" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>3384</v>
       </c>
@@ -6801,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="C312" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D312" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E312" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F312" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>3403</v>
       </c>
@@ -6821,36 +7045,39 @@
         <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D313" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E313" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F313" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>3437</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
       </c>
+      <c r="C314" t="s">
+        <v>10</v>
+      </c>
       <c r="D314" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E314" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F314" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>3437</v>
       </c>
@@ -6858,53 +7085,59 @@
         <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E315" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F315" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>3439</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
       </c>
+      <c r="C316" t="s">
+        <v>10</v>
+      </c>
       <c r="D316" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E316" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F316" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>3440</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
       </c>
+      <c r="C317" t="s">
+        <v>10</v>
+      </c>
       <c r="D317" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E317" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F317" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>3443</v>
       </c>
@@ -6912,19 +7145,19 @@
         <v>6</v>
       </c>
       <c r="C318" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D318" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E318" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F318" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>3480</v>
       </c>
@@ -6932,36 +7165,39 @@
         <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D319" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E319" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F319" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>3484</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
       </c>
+      <c r="C320" t="s">
+        <v>10</v>
+      </c>
       <c r="D320" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E320" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F320" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>3511</v>
       </c>
@@ -6969,70 +7205,79 @@
         <v>6</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D321" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E321" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F321" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>3517</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
       </c>
+      <c r="C322" t="s">
+        <v>10</v>
+      </c>
       <c r="D322" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E322" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F322" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>3533</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
       </c>
+      <c r="C323" t="s">
+        <v>10</v>
+      </c>
       <c r="D323" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E323" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F323" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>3537</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
+      <c r="C324" t="s">
+        <v>10</v>
+      </c>
       <c r="D324" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E324" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F324" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>3543</v>
       </c>
@@ -7040,53 +7285,59 @@
         <v>6</v>
       </c>
       <c r="C325" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D325" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E325" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F325" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>3562</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
       </c>
+      <c r="C326" t="s">
+        <v>10</v>
+      </c>
       <c r="D326" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E326" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F326" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>3571</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
       </c>
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
       <c r="D327" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E327" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F327" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>3577</v>
       </c>
@@ -7094,87 +7345,99 @@
         <v>8</v>
       </c>
       <c r="C328" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D328" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E328" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F328" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>3619</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
       </c>
+      <c r="C329" t="s">
+        <v>10</v>
+      </c>
       <c r="D329" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E329" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F329" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>3646</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
       </c>
+      <c r="C330" t="s">
+        <v>10</v>
+      </c>
       <c r="D330" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E330" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F330" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>3673</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
       </c>
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
       <c r="D331" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E331" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F331" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>3683</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
       </c>
+      <c r="C332" t="s">
+        <v>10</v>
+      </c>
       <c r="D332" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E332" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F332" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>3686</v>
       </c>
@@ -7182,36 +7445,39 @@
         <v>8</v>
       </c>
       <c r="C333" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D333" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E333" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F333" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>3713</v>
       </c>
       <c r="B334" t="s">
         <v>7</v>
       </c>
+      <c r="C334" t="s">
+        <v>10</v>
+      </c>
       <c r="D334" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E334" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F334" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>3715</v>
       </c>
@@ -7219,70 +7485,79 @@
         <v>8</v>
       </c>
       <c r="C335" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D335" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E335" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F335" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>3781</v>
       </c>
       <c r="B336" t="s">
         <v>7</v>
       </c>
+      <c r="C336" t="s">
+        <v>10</v>
+      </c>
       <c r="D336" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E336" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F336" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>3795</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
       </c>
+      <c r="C337" t="s">
+        <v>10</v>
+      </c>
       <c r="D337" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E337" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F337" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>3797</v>
       </c>
       <c r="B338" t="s">
         <v>7</v>
       </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
       <c r="D338" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E338" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F338" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>3802</v>
       </c>
@@ -7290,19 +7565,19 @@
         <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D339" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E339" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F339" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>3811</v>
       </c>
@@ -7310,36 +7585,39 @@
         <v>8</v>
       </c>
       <c r="C340" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D340" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E340" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F340" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>3814</v>
       </c>
       <c r="B341" t="s">
         <v>7</v>
       </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
       <c r="D341" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E341" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F341" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>3833</v>
       </c>
@@ -7347,36 +7625,39 @@
         <v>8</v>
       </c>
       <c r="C342" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D342" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E342" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F342" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>3838</v>
       </c>
       <c r="B343" t="s">
         <v>7</v>
       </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
       <c r="D343" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E343" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F343" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>3853</v>
       </c>
@@ -7384,36 +7665,39 @@
         <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D344" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E344" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F344" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>3853</v>
       </c>
       <c r="B345" t="s">
         <v>7</v>
       </c>
+      <c r="C345" t="s">
+        <v>10</v>
+      </c>
       <c r="D345" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E345" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F345" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>3854</v>
       </c>
@@ -7421,19 +7705,19 @@
         <v>8</v>
       </c>
       <c r="C346" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D346" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E346" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F346" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>3860</v>
       </c>
@@ -7441,19 +7725,19 @@
         <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D347" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E347" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F347" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>3867</v>
       </c>
@@ -7461,19 +7745,19 @@
         <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D348" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E348" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F348" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>3917</v>
       </c>
@@ -7481,19 +7765,19 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D349" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E349" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F349" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>3920</v>
       </c>
@@ -7501,19 +7785,19 @@
         <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D350" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E350" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F350" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>3944</v>
       </c>
@@ -7521,36 +7805,39 @@
         <v>6</v>
       </c>
       <c r="C351" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D351" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E351" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F351" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>3958</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
       </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
       <c r="D352" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E352" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F352" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>3958</v>
       </c>
@@ -7558,19 +7845,19 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E353" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F353" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>3960</v>
       </c>
@@ -7578,19 +7865,19 @@
         <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D354" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E354" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F354" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>3961</v>
       </c>
@@ -7598,19 +7885,19 @@
         <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D355" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E355" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F355" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>3970</v>
       </c>
@@ -7618,21 +7905,19 @@
         <v>8</v>
       </c>
       <c r="C356" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D356" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E356" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F356" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>